--- a/data/trans_bre/P57_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Clase-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 2,51</t>
+          <t>-10,34; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 10,44</t>
+          <t>-2,44; 10,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 8,41</t>
+          <t>-27,38; 10,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 25,82</t>
+          <t>-5,41; 25,3</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,72; -0,23</t>
+          <t>-14,74; -0,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 3,56</t>
+          <t>-8,37; 3,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,5; -0,62</t>
+          <t>-40,69; -0,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 7,85</t>
+          <t>-16,71; 8,74</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 2,95</t>
+          <t>-11,87; 3,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-52,01; -8,45</t>
+          <t>-51,76; -7,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 11,23</t>
+          <t>-38,97; 11,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,5; -17,43</t>
+          <t>-60,11; -15,97</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,55</t>
+          <t>-1,82; 6,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,3; -0,67</t>
+          <t>-27,27; -0,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 25,17</t>
+          <t>-6,18; 25,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,57; -1,62</t>
+          <t>-58,41; -1,16</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -1,5</t>
+          <t>-10,5; -1,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,95; -7,34</t>
+          <t>-22,75; -7,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,04; -6,97</t>
+          <t>-39,04; -6,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-49,34; -18,38</t>
+          <t>-49,73; -18,97</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -10,48</t>
+          <t>-22,59; -10,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -10,12</t>
+          <t>-32,68; -11,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,06; -27,02</t>
+          <t>-46,67; -26,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,36; -19,1</t>
+          <t>-44,58; -21,07</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -1,97</t>
+          <t>-6,31; -1,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,45; -7,33</t>
+          <t>-25,68; -7,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,98; -6,78</t>
+          <t>-20,0; -5,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-44,56; -15,47</t>
+          <t>-43,11; -15,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Clase-trans_bre.xlsx
@@ -871,7 +871,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
